--- a/assets/file_format/import_employee.xlsx
+++ b/assets/file_format/import_employee.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>NIP</t>
   </si>
@@ -59,7 +59,7 @@
     <t>RW</t>
   </si>
   <si>
-    <t>DESA</t>
+    <t>KELURAHAN</t>
   </si>
   <si>
     <t>KECAMATAN</t>
@@ -101,9 +101,6 @@
     <t>MULAI TUGAS</t>
   </si>
   <si>
-    <t>PENDIDIKAN</t>
-  </si>
-  <si>
     <t>ID JENJANG PENDIDIKAN</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
     <t>NAMA ORANG DARURAT 1</t>
   </si>
   <si>
+    <t>NOMOR DARURAT 2</t>
+  </si>
+  <si>
     <t>NAMA ORANG DARURAT 2</t>
   </si>
   <si>
@@ -152,10 +152,10 @@
     <t>hris</t>
   </si>
   <si>
-    <t>HENDRI ANGGARA</t>
-  </si>
-  <si>
-    <t>ndrianggara</t>
+    <t>ISMAIL</t>
+  </si>
+  <si>
+    <t>MAIL</t>
   </si>
   <si>
     <t>Laki-Laki</t>
@@ -164,7 +164,7 @@
     <t>AB</t>
   </si>
   <si>
-    <t>SMP</t>
+    <t>SMP PUTRA</t>
   </si>
   <si>
     <t>JL KEMENANGAN V</t>
@@ -194,9 +194,6 @@
     <t>Ruki</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>30,20</t>
   </si>
   <si>
@@ -210,6 +207,12 @@
   </si>
   <si>
     <t>321345465233212</t>
+  </si>
+  <si>
+    <t>DIV0001</t>
+  </si>
+  <si>
+    <t>CBG00001</t>
   </si>
   <si>
     <t>akademik</t>
@@ -229,13 +232,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,14 +279,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,13 +297,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,23 +308,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,29 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -387,6 +347,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,23 +385,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,187 +422,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,26 +625,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,32 +682,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,151 +713,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -888,7 +878,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -1210,48 +1200,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="4.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.1111111111111" customWidth="1"/>
-    <col min="3" max="5" width="18.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="13.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="18.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="20.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="19.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="13.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="15.3333333333333" customWidth="1"/>
-    <col min="17" max="17" width="22.3333333333333" customWidth="1"/>
-    <col min="18" max="18" width="10.6666666666667"/>
-    <col min="20" max="20" width="14.2222222222222" customWidth="1"/>
-    <col min="21" max="21" width="15.5555555555556" customWidth="1"/>
-    <col min="23" max="23" width="11.5555555555556" customWidth="1"/>
-    <col min="25" max="25" width="12.6666666666667" customWidth="1"/>
-    <col min="26" max="26" width="14" customWidth="1"/>
-    <col min="27" max="28" width="10.4444444444444" customWidth="1"/>
-    <col min="29" max="29" width="12.2222222222222" customWidth="1"/>
-    <col min="30" max="30" width="23.5555555555556" customWidth="1"/>
-    <col min="33" max="33" width="24.6666666666667" customWidth="1"/>
-    <col min="35" max="35" width="16.5555555555556" customWidth="1"/>
-    <col min="36" max="36" width="19.4444444444444" customWidth="1"/>
-    <col min="37" max="37" width="17.7777777777778" customWidth="1"/>
-    <col min="38" max="38" width="23.4444444444444" customWidth="1"/>
-    <col min="39" max="40" width="25" customWidth="1"/>
-    <col min="43" max="43" width="12.8888888888889"/>
-    <col min="44" max="44" width="11" customWidth="1"/>
-    <col min="45" max="45" width="12.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="8.33333333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="5.88888888888889" customWidth="1"/>
+    <col min="12" max="12" width="18.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="3.77777777777778" customWidth="1"/>
+    <col min="14" max="14" width="4.55555555555556" customWidth="1"/>
+    <col min="15" max="15" width="12.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="10.2222222222222" customWidth="1"/>
+    <col min="18" max="18" width="10.6666666666667" customWidth="1"/>
+    <col min="19" max="19" width="21.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="14.7777777777778" customWidth="1"/>
+    <col min="21" max="21" width="15.8888888888889" customWidth="1"/>
+    <col min="22" max="22" width="16.4444444444444" customWidth="1"/>
+    <col min="23" max="23" width="17.5555555555556" customWidth="1"/>
+    <col min="24" max="24" width="11.1111111111111" customWidth="1"/>
+    <col min="25" max="26" width="14.6666666666667" customWidth="1"/>
+    <col min="27" max="27" width="10.7777777777778" customWidth="1"/>
+    <col min="28" max="28" width="14.1111111111111" customWidth="1"/>
+    <col min="29" max="29" width="24" customWidth="1"/>
+    <col min="30" max="30" width="15.8888888888889" customWidth="1"/>
+    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
+    <col min="32" max="32" width="25.4444444444444" customWidth="1"/>
+    <col min="33" max="33" width="6.11111111111111" customWidth="1"/>
+    <col min="34" max="34" width="16.6666666666667" customWidth="1"/>
+    <col min="35" max="35" width="20.1111111111111" customWidth="1"/>
+    <col min="36" max="36" width="19.7777777777778" customWidth="1"/>
+    <col min="37" max="39" width="25.7777777777778" customWidth="1"/>
+    <col min="40" max="40" width="17.5555555555556" customWidth="1"/>
+    <col min="41" max="41" width="9" customWidth="1"/>
+    <col min="42" max="42" width="12.8888888888889" customWidth="1"/>
+    <col min="43" max="43" width="11.2222222222222" customWidth="1"/>
+    <col min="44" max="44" width="12.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:45">
+    <row r="1" s="1" customFormat="1" spans="1:44">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1370,27 +1370,24 @@
         <v>38</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:44">
       <c r="A2">
-        <v>201383169</v>
+        <v>203333333</v>
       </c>
       <c r="B2">
         <v>12345</v>
@@ -1473,72 +1470,204 @@
       <c r="AB2" s="4">
         <v>43793</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2">
+        <v>2019</v>
+      </c>
+      <c r="AF2">
+        <v>30</v>
+      </c>
+      <c r="AG2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2">
+      <c r="AH2" s="4">
+        <v>43793</v>
+      </c>
+      <c r="AI2">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2">
+        <v>46546565564</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3">
+        <v>12365489</v>
+      </c>
+      <c r="B3">
+        <v>12345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="AE2">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="AF2">
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3">
+        <v>11120</v>
+      </c>
+      <c r="R3">
+        <v>323232321</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="4">
+        <v>33201</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>43793</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3">
         <v>2019</v>
       </c>
-      <c r="AG2">
+      <c r="AF3">
         <v>30</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AG3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>43793</v>
+      </c>
+      <c r="AI3">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="4">
-        <v>43793</v>
-      </c>
-      <c r="AJ2">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK3" t="s">
         <v>61</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="s">
         <v>62</v>
       </c>
-      <c r="AM2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AN3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO3" t="s">
         <v>64</v>
       </c>
-      <c r="AP2">
-        <v>4</v>
-      </c>
-      <c r="AQ2">
+      <c r="AP3">
         <v>46546565564</v>
       </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
+      <c r="AQ3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR3">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3">
       <formula1>SOURCE!$E$4:$E$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3">
       <formula1>SOURCE!$D$4:$D$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3">
       <formula1>SOURCE!$F$4:$F$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" display="ndrianggar@gmail.com"/>
+    <hyperlink ref="S3" r:id="rId1" display="ndrianggar@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1564,15 +1693,15 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -1583,7 +1712,7 @@
     </row>
     <row r="6" spans="6:6">
       <c r="F6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/assets/file_format/import_employee.xlsx
+++ b/assets/file_format/import_employee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8940"/>
+    <workbookView windowWidth="21863" windowHeight="9804"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>NIP</t>
   </si>
@@ -152,76 +152,43 @@
     <t>hris</t>
   </si>
   <si>
-    <t>ISMAIL</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>Laki-Laki</t>
+    <t>SUGENG SUKANTO</t>
+  </si>
+  <si>
+    <t>SUGENG</t>
   </si>
   <si>
     <t>AB</t>
   </si>
   <si>
-    <t>SMP PUTRA</t>
-  </si>
-  <si>
-    <t>JL KEMENANGAN V</t>
-  </si>
-  <si>
-    <t>jakarta barat</t>
-  </si>
-  <si>
-    <t>tamansari</t>
-  </si>
-  <si>
-    <t>ndrianggar@gmail.com</t>
-  </si>
-  <si>
-    <t>kuningan</t>
-  </si>
-  <si>
-    <t>32112332323232</t>
-  </si>
-  <si>
-    <t>231321323232321</t>
+    <t>sfmsadfas</t>
+  </si>
+  <si>
+    <t>Cijantung</t>
+  </si>
+  <si>
+    <t>Pasar Rebo</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>ANISARAH, S.Pd</t>
+  </si>
+  <si>
+    <t>ANI</t>
+  </si>
+  <si>
+    <t>SATWIKA PARAMA NANDINI</t>
+  </si>
+  <si>
+    <t>WIKA</t>
+  </si>
+  <si>
+    <t>akademik</t>
   </si>
   <si>
     <t>Nikah</t>
-  </si>
-  <si>
-    <t>Ruki</t>
-  </si>
-  <si>
-    <t>30,20</t>
-  </si>
-  <si>
-    <t>02197600722</t>
-  </si>
-  <si>
-    <t>Rusmani</t>
-  </si>
-  <si>
-    <t>Rusman</t>
-  </si>
-  <si>
-    <t>321345465233212</t>
-  </si>
-  <si>
-    <t>DIV0001</t>
-  </si>
-  <si>
-    <t>CBG00001</t>
-  </si>
-  <si>
-    <t>akademik</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
   </si>
   <si>
     <t>Duda/Janda</t>
@@ -233,9 +200,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -272,6 +239,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -279,15 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,7 +283,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,77 +344,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,19 +389,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +509,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,139 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,21 +588,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,17 +616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,8 +628,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,170 +660,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -880,7 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,13 +1166,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
@@ -1385,10 +1351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
-      <c r="A2">
-        <v>203333333</v>
-      </c>
+    <row r="2" spans="2:34">
       <c r="B2">
         <v>12345</v>
       </c>
@@ -1396,10 +1359,10 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1410,119 +1373,38 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
       </c>
       <c r="M2">
         <v>3</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="U2" s="4">
+        <v>40341</v>
+      </c>
+      <c r="Y2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2">
-        <v>11120</v>
-      </c>
-      <c r="R2">
-        <v>323232321</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="4">
-        <v>33201</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>43793</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>3</v>
-      </c>
-      <c r="AE2">
-        <v>2019</v>
-      </c>
-      <c r="AF2">
-        <v>30</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>43793</v>
-      </c>
-      <c r="AI2">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP2">
-        <v>46546565564</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR2">
-        <v>12</v>
-      </c>
+      <c r="AB2" s="4"/>
+      <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:44">
-      <c r="A3">
-        <v>12365489</v>
-      </c>
+    <row r="3" spans="2:25">
       <c r="B3">
         <v>12345</v>
       </c>
@@ -1530,145 +1412,110 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>48</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>50</v>
       </c>
-      <c r="M3">
+      <c r="U3" s="4">
+        <v>40342</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="B4">
+        <v>12345</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="N3">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="4">
+        <v>40343</v>
+      </c>
+      <c r="Y4" t="s">
         <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3">
-        <v>11120</v>
-      </c>
-      <c r="R3">
-        <v>323232321</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="4">
-        <v>33201</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>43793</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>3</v>
-      </c>
-      <c r="AE3">
-        <v>2019</v>
-      </c>
-      <c r="AF3">
-        <v>30</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>43793</v>
-      </c>
-      <c r="AI3">
-        <v>3</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP3">
-        <v>46546565564</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR3">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4">
       <formula1>SOURCE!$E$4:$E$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4">
       <formula1>SOURCE!$D$4:$D$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2 Y3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y4">
       <formula1>SOURCE!$F$4:$F$6</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="ndrianggar@gmail.com"/>
-    <hyperlink ref="S3" r:id="rId1" display="ndrianggar@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1680,7 +1527,7 @@
   <dimension ref="D4:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1689,19 +1536,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:6">
-      <c r="D4" t="s">
-        <v>47</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="4:6">
-      <c r="D5" t="s">
-        <v>68</v>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -1712,7 +1559,7 @@
     </row>
     <row r="6" spans="6:6">
       <c r="F6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/assets/file_format/import_employee.xlsx
+++ b/assets/file_format/import_employee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21863" windowHeight="9804"/>
+    <workbookView windowWidth="21863" windowHeight="9875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>it_ih</author>
+  </authors>
+  <commentList>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="134"/>
+          </rPr>
+          <t>FORMAT YYYY/MM/DD</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>NIP</t>
   </si>
@@ -26,169 +48,229 @@
     <t>HAK AKSES APLIKASI</t>
   </si>
   <si>
+    <t>NAMA LENGKAP</t>
+  </si>
+  <si>
+    <t>NAMA PANGGILAN</t>
+  </si>
+  <si>
+    <t>NO KTP</t>
+  </si>
+  <si>
+    <t>NO KK</t>
+  </si>
+  <si>
+    <t>AGAMA</t>
+  </si>
+  <si>
+    <t>JENIS KELAMIN</t>
+  </si>
+  <si>
+    <t>GOLONGAN DARAH</t>
+  </si>
+  <si>
+    <t>ALAMAT</t>
+  </si>
+  <si>
+    <t>ID PROVINSI</t>
+  </si>
+  <si>
+    <t>ID KABUPATEN</t>
+  </si>
+  <si>
+    <t>ID KECAMATAN</t>
+  </si>
+  <si>
+    <t>ID KELURAHAN</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>KODE POS</t>
+  </si>
+  <si>
+    <t>NO TELEPON</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>TEMPAT LAHIR</t>
+  </si>
+  <si>
+    <t>TANGGAL LAHIR</t>
+  </si>
+  <si>
+    <t>ID NEGARA</t>
+  </si>
+  <si>
+    <t>STATUS NIKAH</t>
+  </si>
+  <si>
+    <t>JUMLAH ANAK</t>
+  </si>
+  <si>
+    <t>ID JENJANG PEND</t>
+  </si>
+  <si>
+    <t>ID UNIV</t>
+  </si>
+  <si>
+    <t>ID FAKULTAS</t>
+  </si>
+  <si>
+    <t>TAHUN LULUS</t>
+  </si>
+  <si>
+    <t>ID JURUSAN</t>
+  </si>
+  <si>
+    <t>IPK</t>
+  </si>
+  <si>
+    <t>TGL MULAI BERGABUNG</t>
+  </si>
+  <si>
+    <t>ID STATUS KARYAWAN</t>
+  </si>
+  <si>
+    <t>NOMOR DARURAT</t>
+  </si>
+  <si>
+    <t>NAMA KONTAK DARURAT</t>
+  </si>
+  <si>
+    <t>KEAHLIAN BHS ENG</t>
+  </si>
+  <si>
+    <t>KEAHLIAN BHS ARB</t>
+  </si>
+  <si>
+    <t>SERTIFIKAT BHS ENG</t>
+  </si>
+  <si>
+    <t>SERTIFIKAT BHS ARB</t>
+  </si>
+  <si>
+    <t>TILAWAH AL-QURAN</t>
+  </si>
+  <si>
+    <t>HAFALAN AL-QURAN</t>
+  </si>
+  <si>
+    <t>PELATIHAN YG DIINGINKAN</t>
+  </si>
+  <si>
+    <t>PENGISI KAJIAN</t>
+  </si>
+  <si>
+    <t>AKTIFITAS KAJIAN</t>
+  </si>
+  <si>
+    <t>KEAHLIAN KOMPUTER</t>
+  </si>
+  <si>
+    <t>ID DIVISI</t>
+  </si>
+  <si>
     <t>ID JABATAN</t>
   </si>
   <si>
-    <t>LEVEL</t>
-  </si>
-  <si>
-    <t>NAMA</t>
-  </si>
-  <si>
-    <t>NAMA PANGGILAN</t>
-  </si>
-  <si>
-    <t>AGAMA</t>
-  </si>
-  <si>
-    <t>JENIS KELAMIN</t>
-  </si>
-  <si>
-    <t>GOLONGAN DARAH</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>ALAMAT</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>KELURAHAN</t>
-  </si>
-  <si>
-    <t>KECAMATAN</t>
-  </si>
-  <si>
-    <t>KODE POS</t>
-  </si>
-  <si>
-    <t>NO TELP</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>TEMPAT LAHIR</t>
-  </si>
-  <si>
-    <t>TANGGAL LAHIR</t>
-  </si>
-  <si>
-    <t>NO KTP</t>
-  </si>
-  <si>
-    <t>NPWP</t>
-  </si>
-  <si>
-    <t>ID NEGARA</t>
-  </si>
-  <si>
-    <t>STATUS NIKAH</t>
-  </si>
-  <si>
-    <t>JUMLAH ANAK</t>
-  </si>
-  <si>
-    <t>NAMA IBU</t>
-  </si>
-  <si>
-    <t>MULAI TUGAS</t>
-  </si>
-  <si>
-    <t>ID JENJANG PENDIDIKAN</t>
-  </si>
-  <si>
-    <t>ID UNIVERSITAS</t>
-  </si>
-  <si>
-    <t>TAHUN LULUS</t>
-  </si>
-  <si>
-    <t>ID JURUSAN UNIVERSITAS</t>
-  </si>
-  <si>
-    <t>IPK</t>
-  </si>
-  <si>
-    <t>TGL BERGABUNG</t>
-  </si>
-  <si>
-    <t>ID STATUS PEGAWAI</t>
-  </si>
-  <si>
-    <t>NOMOR DARURAT 1</t>
-  </si>
-  <si>
-    <t>NAMA ORANG DARURAT 1</t>
-  </si>
-  <si>
-    <t>NOMOR DARURAT 2</t>
-  </si>
-  <si>
-    <t>NAMA ORANG DARURAT 2</t>
-  </si>
-  <si>
-    <t>RELASI KK</t>
-  </si>
-  <si>
-    <t>ID DIVISI</t>
-  </si>
-  <si>
-    <t>NO KK</t>
-  </si>
-  <si>
     <t>ID CABANG</t>
   </si>
   <si>
     <t>ID JOB TITLE</t>
   </si>
   <si>
-    <t>hris</t>
-  </si>
-  <si>
-    <t>SUGENG SUKANTO</t>
-  </si>
-  <si>
-    <t>SUGENG</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>sfmsadfas</t>
-  </si>
-  <si>
-    <t>Cijantung</t>
-  </si>
-  <si>
-    <t>Pasar Rebo</t>
+    <t>(Kosongkan)</t>
+  </si>
+  <si>
+    <t>CIRCLE,HRD</t>
+  </si>
+  <si>
+    <t>JAJAL IMPORT1</t>
+  </si>
+  <si>
+    <t>JAJAL AJA</t>
+  </si>
+  <si>
+    <t>islam</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>jl kemenag</t>
+  </si>
+  <si>
+    <t>ndrianggr@gmail.com</t>
+  </si>
+  <si>
+    <t>kuningan</t>
+  </si>
+  <si>
+    <t>Menikah</t>
+  </si>
+  <si>
+    <t>PGW0002</t>
+  </si>
+  <si>
+    <t>choy</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Bersertifikat</t>
+  </si>
+  <si>
+    <t>Bisa</t>
+  </si>
+  <si>
+    <t>apa saja</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>DIV0001</t>
+  </si>
+  <si>
+    <t>JB0001</t>
+  </si>
+  <si>
+    <t>CBG00001</t>
+  </si>
+  <si>
+    <t>JOBT001</t>
+  </si>
+  <si>
+    <t>JAJAL IMPORT2</t>
+  </si>
+  <si>
+    <t>JAJAL IMPORT3</t>
   </si>
   <si>
     <t>Single</t>
   </si>
   <si>
-    <t>ANISARAH, S.Pd</t>
-  </si>
-  <si>
-    <t>ANI</t>
-  </si>
-  <si>
-    <t>SATWIKA PARAMA NANDINI</t>
-  </si>
-  <si>
-    <t>WIKA</t>
-  </si>
-  <si>
-    <t>akademik</t>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>HRD</t>
   </si>
   <si>
     <t>Nikah</t>
+  </si>
+  <si>
+    <t>CIRCLE</t>
   </si>
   <si>
     <t>Duda/Janda</t>
@@ -199,13 +281,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,14 +312,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -245,15 +364,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,25 +395,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,6 +432,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -314,67 +479,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,25 +505,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,139 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,8 +716,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -620,7 +744,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,11 +775,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,21 +793,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,13 +814,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,134 +832,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,8 +967,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AN13" sqref="AN13"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1177,47 +1306,48 @@
     <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="20.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="18.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="8.33333333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="5.88888888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="3.77777777777778" customWidth="1"/>
-    <col min="14" max="14" width="4.55555555555556" customWidth="1"/>
-    <col min="15" max="15" width="12.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="10.2222222222222" customWidth="1"/>
-    <col min="18" max="18" width="10.6666666666667" customWidth="1"/>
-    <col min="19" max="19" width="21.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.7777777777778" customWidth="1"/>
-    <col min="21" max="21" width="15.8888888888889" customWidth="1"/>
-    <col min="22" max="22" width="16.4444444444444" customWidth="1"/>
-    <col min="23" max="23" width="17.5555555555556" customWidth="1"/>
-    <col min="24" max="24" width="11.1111111111111" customWidth="1"/>
-    <col min="25" max="26" width="14.6666666666667" customWidth="1"/>
-    <col min="27" max="27" width="10.7777777777778" customWidth="1"/>
-    <col min="28" max="28" width="14.1111111111111" customWidth="1"/>
-    <col min="29" max="29" width="24" customWidth="1"/>
-    <col min="30" max="30" width="15.8888888888889" customWidth="1"/>
+    <col min="9" max="10" width="15.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="5.88888888888889" customWidth="1"/>
+    <col min="13" max="13" width="18.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="15.5555555555556" customWidth="1"/>
+    <col min="15" max="17" width="14.8888888888889" customWidth="1"/>
+    <col min="18" max="18" width="12.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="10.2222222222222" customWidth="1"/>
+    <col min="21" max="21" width="10.6666666666667" customWidth="1"/>
+    <col min="22" max="22" width="21.7777777777778" customWidth="1"/>
+    <col min="23" max="23" width="14.7777777777778" customWidth="1"/>
+    <col min="24" max="24" width="15.8888888888889" customWidth="1"/>
+    <col min="25" max="25" width="16.4444444444444" customWidth="1"/>
+    <col min="26" max="26" width="17.5555555555556" customWidth="1"/>
+    <col min="27" max="27" width="11.1111111111111" customWidth="1"/>
+    <col min="28" max="29" width="14.6666666666667" customWidth="1"/>
+    <col min="30" max="30" width="10.7777777777778" customWidth="1"/>
     <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="25.4444444444444" customWidth="1"/>
-    <col min="33" max="33" width="6.11111111111111" customWidth="1"/>
-    <col min="34" max="34" width="16.6666666666667" customWidth="1"/>
-    <col min="35" max="35" width="20.1111111111111" customWidth="1"/>
-    <col min="36" max="36" width="19.7777777777778" customWidth="1"/>
-    <col min="37" max="39" width="25.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="17.5555555555556" customWidth="1"/>
-    <col min="41" max="41" width="9" customWidth="1"/>
-    <col min="42" max="42" width="12.8888888888889" customWidth="1"/>
-    <col min="43" max="43" width="11.2222222222222" customWidth="1"/>
-    <col min="44" max="44" width="12.1111111111111" customWidth="1"/>
+    <col min="32" max="32" width="24" customWidth="1"/>
+    <col min="33" max="33" width="22.2222222222222" customWidth="1"/>
+    <col min="34" max="34" width="18.1111111111111" customWidth="1"/>
+    <col min="35" max="35" width="25.4444444444444" customWidth="1"/>
+    <col min="36" max="36" width="19.2222222222222" customWidth="1"/>
+    <col min="37" max="37" width="16.6666666666667" customWidth="1"/>
+    <col min="38" max="38" width="20.1111111111111" customWidth="1"/>
+    <col min="39" max="39" width="19.7777777777778" customWidth="1"/>
+    <col min="40" max="42" width="25.7777777777778" customWidth="1"/>
+    <col min="43" max="43" width="17.5555555555556" customWidth="1"/>
+    <col min="44" max="44" width="16.2222222222222" customWidth="1"/>
+    <col min="45" max="45" width="12.8888888888889" customWidth="1"/>
+    <col min="46" max="46" width="11.2222222222222" customWidth="1"/>
+    <col min="47" max="48" width="11.8888888888889" customWidth="1"/>
+    <col min="49" max="49" width="13.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:44">
+    <row r="1" s="1" customFormat="1" spans="1:49">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1375,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1350,174 +1480,481 @@
       <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="2:34">
+    <row r="2" spans="1:49">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B2">
         <v>12345</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <v>332132123</v>
+      </c>
+      <c r="G2">
+        <v>132123</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>1208</v>
+      </c>
+      <c r="N2">
+        <v>1208031</v>
+      </c>
+      <c r="O2">
+        <v>1208031013</v>
+      </c>
+      <c r="P2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2">
+      <c r="R2">
+        <v>11120</v>
+      </c>
+      <c r="S2">
+        <v>32132313213</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="6">
+        <v>19901124</v>
+      </c>
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="X2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2">
+        <v>6</v>
+      </c>
+      <c r="AB2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="U2" s="4">
-        <v>40341</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="4"/>
-      <c r="AH2" s="4"/>
+      <c r="AC2">
+        <v>1990</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>20191120</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>215454545</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO2">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:49">
       <c r="B3">
         <v>12345</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <v>332132123</v>
+      </c>
+      <c r="G3">
+        <v>132123</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>1208</v>
+      </c>
+      <c r="N3">
+        <v>1208031</v>
+      </c>
+      <c r="O3">
+        <v>1208031013</v>
+      </c>
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3">
+      <c r="R3">
+        <v>11120</v>
+      </c>
+      <c r="S3">
+        <v>32132313213</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="6">
+        <v>19901124</v>
+      </c>
+      <c r="W3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="X3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1990</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="8">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="4">
-        <v>40342</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>51</v>
+      <c r="AF3" s="8">
+        <v>20191120</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>215454545</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO3">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:49">
       <c r="B4">
         <v>12345</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <v>332132123</v>
+      </c>
+      <c r="G4">
+        <v>132123</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>1208</v>
+      </c>
+      <c r="N4">
+        <v>1208031</v>
+      </c>
+      <c r="O4">
+        <v>1208031013</v>
+      </c>
+      <c r="P4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="Q4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4">
+      <c r="R4">
+        <v>11120</v>
+      </c>
+      <c r="S4">
+        <v>32132313213</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="6">
+        <v>19901124</v>
+      </c>
+      <c r="W4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="X4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4">
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1990</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="8">
         <v>5</v>
       </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="4">
-        <v>40343</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>51</v>
+      <c r="AF4" s="8">
+        <v>20191120</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>215454545</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4">
-      <formula1>SOURCE!$E$4:$E$5</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>SOURCE!$E$4:$E$32</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>SOURCE!$D$4:$D$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y4">
-      <formula1>SOURCE!$F$4:$F$6</formula1>
-    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId3" display="ndrianggr@gmail.com"/>
+    <hyperlink ref="T3" r:id="rId3" display="ndrianggr@gmail.com"/>
+    <hyperlink ref="T4" r:id="rId3" display="ndrianggr@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1527,39 +1964,43 @@
   <dimension ref="D4:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:6">
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="4:6">
-      <c r="D5">
-        <v>2</v>
+      <c r="D5" t="s">
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="6" spans="6:6">
+    <row r="6" spans="5:6">
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/assets/file_format/import_employee.xlsx
+++ b/assets/file_format/import_employee.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>NIP</t>
   </si>
@@ -186,16 +186,22 @@
     <t>ID JOB TITLE</t>
   </si>
   <si>
+    <t>UKURAN BAJU</t>
+  </si>
+  <si>
     <t>(Kosongkan)</t>
   </si>
   <si>
     <t>CIRCLE,HRD</t>
   </si>
   <si>
-    <t>JAJAL IMPORT1</t>
-  </si>
-  <si>
-    <t>JAJAL AJA</t>
+    <t>jubaedah</t>
+  </si>
+  <si>
+    <t>juju</t>
+  </si>
+  <si>
+    <t>123456789121212</t>
   </si>
   <si>
     <t>islam</t>
@@ -252,10 +258,22 @@
     <t>JOBT001</t>
   </si>
   <si>
-    <t>JAJAL IMPORT2</t>
-  </si>
-  <si>
-    <t>JAJAL IMPORT3</t>
+    <t>siti</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>123456789789452</t>
+  </si>
+  <si>
+    <t>susi</t>
+  </si>
+  <si>
+    <t>sus</t>
+  </si>
+  <si>
+    <t>123455666645555</t>
   </si>
   <si>
     <t>Single</t>
@@ -281,13 +299,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,21 +333,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,9 +353,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,53 +443,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,46 +473,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,20 +488,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,25 +508,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,157 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,12 +711,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -743,8 +753,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,17 +777,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,31 +808,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,134 +829,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -968,14 +965,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,10 +1290,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AW4"/>
+  <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AK4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1345,9 +1340,10 @@
     <col min="46" max="46" width="11.2222222222222" customWidth="1"/>
     <col min="47" max="48" width="11.8888888888889" customWidth="1"/>
     <col min="49" max="49" width="13.2222222222222" customWidth="1"/>
+    <col min="50" max="50" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:49">
+    <row r="1" s="1" customFormat="1" spans="1:50">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1371,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1489,46 +1485,49 @@
       <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AW1" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:49">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>12345</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2">
-        <v>332132123</v>
+        <v>53</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="G2">
         <v>132123</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2">
         <v>12</v>
@@ -1554,20 +1553,20 @@
       <c r="S2">
         <v>32132313213</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>57</v>
+      <c r="T2" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="6">
+        <v>60</v>
+      </c>
+      <c r="V2" s="5">
         <v>19901124</v>
       </c>
       <c r="W2">
         <v>1</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>59</v>
+      <c r="X2" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -1587,62 +1586,62 @@
       <c r="AD2">
         <v>1</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="7">
         <v>5</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="7">
         <v>20191120</v>
       </c>
-      <c r="AG2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH2" s="8">
+      <c r="AG2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="7">
         <v>215454545</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AO2">
         <v>2</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="AT2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AW2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:49">
@@ -1650,31 +1649,31 @@
         <v>12345</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3">
-        <v>332132123</v>
+        <v>74</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="G3">
         <v>132123</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3">
         <v>12</v>
@@ -1700,20 +1699,20 @@
       <c r="S3">
         <v>32132313213</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>57</v>
+      <c r="T3" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="6">
+        <v>60</v>
+      </c>
+      <c r="V3" s="5">
         <v>19901124</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>59</v>
+      <c r="X3" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -1733,62 +1732,62 @@
       <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="7">
         <v>5</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="7">
         <v>20191120</v>
       </c>
-      <c r="AG3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH3" s="8">
+      <c r="AG3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH3" s="7">
         <v>215454545</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AO3">
         <v>2</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AR3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="AT3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AW3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:49">
@@ -1796,31 +1795,31 @@
         <v>12345</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4">
-        <v>332132123</v>
+        <v>77</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="G4">
         <v>132123</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L4">
         <v>12</v>
@@ -1846,20 +1845,20 @@
       <c r="S4">
         <v>32132313213</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>57</v>
+      <c r="T4" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="6">
+        <v>60</v>
+      </c>
+      <c r="V4" s="5">
         <v>19901124</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
-      <c r="X4" s="7" t="s">
-        <v>59</v>
+      <c r="X4" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -1879,62 +1878,62 @@
       <c r="AD4">
         <v>1</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="7">
         <v>5</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <v>20191120</v>
       </c>
-      <c r="AG4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH4" s="8">
+      <c r="AG4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH4" s="7">
         <v>215454545</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AO4">
         <v>2</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AR4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="AT4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AW4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1975,32 +1974,32 @@
   <sheetData>
     <row r="4" spans="4:6">
       <c r="D4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="5:6">
       <c r="E6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/assets/file_format/import_employee.xlsx
+++ b/assets/file_format/import_employee.xlsx
@@ -195,7 +195,7 @@
     <t>CIRCLE,HRD</t>
   </si>
   <si>
-    <t>jubaedah</t>
+    <t>Amira</t>
   </si>
   <si>
     <t>juju</t>
@@ -207,79 +207,79 @@
     <t>islam</t>
   </si>
   <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>jl kemenag</t>
+  </si>
+  <si>
+    <t>ndrianggr@gmail.com</t>
+  </si>
+  <si>
+    <t>kuningan</t>
+  </si>
+  <si>
+    <t>Menikah</t>
+  </si>
+  <si>
+    <t>PGW0002</t>
+  </si>
+  <si>
+    <t>choy</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Bersertifikat</t>
+  </si>
+  <si>
+    <t>Bisa</t>
+  </si>
+  <si>
+    <t>apa saja</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>DIV0001</t>
+  </si>
+  <si>
+    <t>JB0001</t>
+  </si>
+  <si>
+    <t>CBG00001</t>
+  </si>
+  <si>
+    <t>JOBT001</t>
+  </si>
+  <si>
+    <t>Aliyah</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>123456789789452</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>sus</t>
+  </si>
+  <si>
+    <t>123455666645555</t>
+  </si>
+  <si>
     <t>Laki-Laki</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>jl kemenag</t>
-  </si>
-  <si>
-    <t>ndrianggr@gmail.com</t>
-  </si>
-  <si>
-    <t>kuningan</t>
-  </si>
-  <si>
-    <t>Menikah</t>
-  </si>
-  <si>
-    <t>PGW0002</t>
-  </si>
-  <si>
-    <t>choy</t>
-  </si>
-  <si>
-    <t>Aktif</t>
-  </si>
-  <si>
-    <t>Bersertifikat</t>
-  </si>
-  <si>
-    <t>Bisa</t>
-  </si>
-  <si>
-    <t>apa saja</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>DIV0001</t>
-  </si>
-  <si>
-    <t>JB0001</t>
-  </si>
-  <si>
-    <t>CBG00001</t>
-  </si>
-  <si>
-    <t>JOBT001</t>
-  </si>
-  <si>
-    <t>siti</t>
-  </si>
-  <si>
-    <t>iti</t>
-  </si>
-  <si>
-    <t>123456789789452</t>
-  </si>
-  <si>
-    <t>susi</t>
-  </si>
-  <si>
-    <t>sus</t>
-  </si>
-  <si>
-    <t>123455666645555</t>
-  </si>
-  <si>
     <t>Single</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
   </si>
   <si>
     <t>HRD</t>
@@ -300,10 +300,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -353,7 +353,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,66 +480,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -435,59 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -508,181 +508,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,17 +711,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,6 +785,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -782,36 +808,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,130 +829,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1974,18 +1974,18 @@
   <sheetData>
     <row r="4" spans="4:6">
       <c r="D4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>81</v>
